--- a/project_tracker.xlsx
+++ b/project_tracker.xlsx
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Telegram bot</t>
   </si>
   <si>
-    <t xml:space="preserve">Either a separate bot for each unit or one telegram bot helping control the network</t>
+    <t xml:space="preserve">So far the central bot (running on the hub server) seems to work well</t>
   </si>
   <si>
     <t xml:space="preserve">Servo control code</t>
@@ -516,7 +516,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/project_tracker.xlsx
+++ b/project_tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t xml:space="preserve">TASK TRACKER</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">Install OpenCV and aircrack-ng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN PROGRESS – INSTALL ON NEW PI</t>
   </si>
   <si>
     <t xml:space="preserve">at least 2 means of detection. Find out a way to get data direct from aircrack not string console output</t>
@@ -515,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -655,92 +652,90 @@
         <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -748,18 +743,18 @@
     </row>
     <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -767,14 +762,14 @@
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
@@ -784,11 +779,11 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
@@ -799,11 +794,11 @@
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -814,11 +809,11 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -829,7 +824,7 @@
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -842,7 +837,7 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -855,11 +850,11 @@
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -870,11 +865,11 @@
     </row>
     <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -885,13 +880,13 @@
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -902,26 +897,26 @@
     </row>
     <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6"/>
       <c r="G21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -934,7 +929,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -947,7 +942,7 @@
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>

--- a/project_tracker.xlsx
+++ b/project_tracker.xlsx
@@ -181,7 +181,7 @@
     <t xml:space="preserve">Can take many pictures of parrot anafi as test</t>
   </si>
   <si>
-    <t xml:space="preserve">Train model on dataset</t>
+    <t xml:space="preserve">Create &amp; train model on dataset</t>
   </si>
   <si>
     <t xml:space="preserve">Image recognition test</t>
@@ -512,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/project_tracker.xlsx
+++ b/project_tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t xml:space="preserve">TASK TRACKER</t>
   </si>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">4G USB setup</t>
   </si>
   <si>
-    <t xml:space="preserve">Install SIM card &amp; PiVPN</t>
+    <t xml:space="preserve">Wireguard over 4G seems to work</t>
   </si>
   <si>
     <t xml:space="preserve">4G Data transmission</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve">CREATE MASTER SD CARD</t>
   </si>
   <si>
-    <t xml:space="preserve">Once all necessary software installed and code written, create a master SD card to copy future ones from (create custom OS image maybe?)</t>
+    <t xml:space="preserve">OS image has been created but need to do final one on raspian-lite when ready</t>
   </si>
   <si>
     <t xml:space="preserve">Print</t>
@@ -230,15 +230,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-409]General"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -256,6 +257,38 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <outline val="true"/>
+      <sz val="10"/>
+      <color rgb="FF2117DE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF17176B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -263,7 +296,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,13 +312,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB66C"/>
-        <bgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFF0C78C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD1"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000042"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0C78C"/>
+        <bgColor rgb="FFFFB66C"/>
       </patternFill>
     </fill>
     <fill>
@@ -307,12 +358,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000080"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000080"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -322,10 +388,90 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000080"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair">
+        <color rgb="FF000080"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000080"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair">
+        <color rgb="FF000080"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000080"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair">
+        <color rgb="FF000080"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -347,62 +493,105 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -413,6 +602,20 @@
     <cellStyle name="Untitled2" xfId="21"/>
     <cellStyle name="Untitled3" xfId="22"/>
     <cellStyle name="Untitled4" xfId="23"/>
+    <cellStyle name="Result2" xfId="24"/>
+    <cellStyle name="Heading1" xfId="25"/>
+    <cellStyle name="Background" xfId="26"/>
+    <cellStyle name="Card" xfId="27"/>
+    <cellStyle name="Input" xfId="28"/>
+    <cellStyle name="Card TL" xfId="29"/>
+    <cellStyle name="Card T" xfId="30"/>
+    <cellStyle name="Card TR" xfId="31"/>
+    <cellStyle name="Card L" xfId="32"/>
+    <cellStyle name="Card R" xfId="33"/>
+    <cellStyle name="Card B" xfId="34"/>
+    <cellStyle name="Card BL" xfId="35"/>
+    <cellStyle name="Card BR" xfId="36"/>
+    <cellStyle name="Column Header" xfId="37"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -448,7 +651,7 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF2117DE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
@@ -462,13 +665,13 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFFFD1"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF000042"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
@@ -481,9 +684,9 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFB66C"/>
+      <rgbColor rgb="FFF0C78C"/>
       <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -492,7 +695,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF17176B"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -512,8 +715,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -694,7 +897,9 @@
       <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I8" s="5" t="s">
         <v>30</v>
       </c>
@@ -852,7 +1057,9 @@
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C18" s="9" t="s">
         <v>56</v>
       </c>
@@ -895,7 +1102,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>61</v>
       </c>
@@ -909,7 +1116,9 @@
       <c r="G21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I21" s="5" t="s">
         <v>64</v>
       </c>

--- a/project_tracker.xlsx
+++ b/project_tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t xml:space="preserve">TASK TRACKER</t>
   </si>
@@ -232,14 +232,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
-    <numFmt numFmtId="165" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="dd\-mmm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -258,15 +259,17 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF17176B"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -275,18 +278,7 @@
       <color rgb="FF2117DE"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF17176B"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -305,6 +297,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000042"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0C78C"/>
+        <bgColor rgb="FFFFB66C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD1"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF158466"/>
         <bgColor rgb="FF008080"/>
       </patternFill>
@@ -319,24 +329,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFD1"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000042"/>
-        <bgColor rgb="FF000080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0C78C"/>
-        <bgColor rgb="FFFFB66C"/>
       </patternFill>
     </fill>
     <fill>
@@ -367,45 +359,23 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair">
-        <color rgb="FF000080"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000080"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000080"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="hair">
         <color rgb="FF000080"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
         <color rgb="FF000080"/>
       </left>
       <right/>
-      <top style="hair">
-        <color rgb="FF000080"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000080"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -413,10 +383,10 @@
       <right style="hair">
         <color rgb="FF000080"/>
       </right>
-      <top style="hair">
-        <color rgb="FF000080"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -440,10 +410,10 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000080"/>
-      </bottom>
+      <top style="hair">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -451,10 +421,10 @@
         <color rgb="FF000080"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000080"/>
-      </bottom>
+      <top style="hair">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -462,10 +432,32 @@
       <right style="hair">
         <color rgb="FF000080"/>
       </right>
-      <top/>
+      <top style="hair">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000080"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000080"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000080"/>
+      </top>
       <bottom style="hair">
         <color rgb="FF000080"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -494,59 +486,59 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
@@ -558,35 +550,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,24 +590,24 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Untitled1" xfId="20"/>
-    <cellStyle name="Untitled2" xfId="21"/>
-    <cellStyle name="Untitled3" xfId="22"/>
-    <cellStyle name="Untitled4" xfId="23"/>
-    <cellStyle name="Result2" xfId="24"/>
-    <cellStyle name="Heading1" xfId="25"/>
-    <cellStyle name="Background" xfId="26"/>
-    <cellStyle name="Card" xfId="27"/>
-    <cellStyle name="Input" xfId="28"/>
-    <cellStyle name="Card TL" xfId="29"/>
-    <cellStyle name="Card T" xfId="30"/>
-    <cellStyle name="Card TR" xfId="31"/>
-    <cellStyle name="Card L" xfId="32"/>
-    <cellStyle name="Card R" xfId="33"/>
-    <cellStyle name="Card B" xfId="34"/>
-    <cellStyle name="Card BL" xfId="35"/>
-    <cellStyle name="Card BR" xfId="36"/>
-    <cellStyle name="Column Header" xfId="37"/>
+    <cellStyle name="Background" xfId="20"/>
+    <cellStyle name="Card" xfId="21"/>
+    <cellStyle name="Card B" xfId="22"/>
+    <cellStyle name="Card BL" xfId="23"/>
+    <cellStyle name="Card BR" xfId="24"/>
+    <cellStyle name="Card L" xfId="25"/>
+    <cellStyle name="Card R" xfId="26"/>
+    <cellStyle name="Card T" xfId="27"/>
+    <cellStyle name="Card TL" xfId="28"/>
+    <cellStyle name="Card TR" xfId="29"/>
+    <cellStyle name="Column Header" xfId="30"/>
+    <cellStyle name="Heading1" xfId="31"/>
+    <cellStyle name="Input" xfId="32"/>
+    <cellStyle name="Result2" xfId="33"/>
+    <cellStyle name="Untitled1" xfId="34"/>
+    <cellStyle name="Untitled2" xfId="35"/>
+    <cellStyle name="Untitled3" xfId="36"/>
+    <cellStyle name="Untitled4" xfId="37"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -716,7 +708,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -845,7 +837,9 @@
       <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>18</v>
       </c>

--- a/project_tracker.xlsx
+++ b/project_tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t xml:space="preserve">TASK TRACKER</t>
   </si>
@@ -73,6 +73,9 @@
     <t xml:space="preserve">Flash ardurover</t>
   </si>
   <si>
+    <t xml:space="preserve">Current board still has INAV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frontend – detector unit (rover or static) control interface as webpage</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t xml:space="preserve">Assemble RC components and connect together</t>
   </si>
   <si>
-    <t xml:space="preserve">Wire &amp; solder basic RC components</t>
+    <t xml:space="preserve">Using PQ-2</t>
   </si>
   <si>
     <t xml:space="preserve">Telegram bot</t>
@@ -106,7 +109,7 @@
     <t xml:space="preserve">Test basic remote control of components</t>
   </si>
   <si>
-    <t xml:space="preserve">Go for a test drive!</t>
+    <t xml:space="preserve">Time to fly!</t>
   </si>
   <si>
     <t xml:space="preserve">Set up VPN server</t>
@@ -124,12 +127,15 @@
     <t xml:space="preserve">Test power pi from 5V pin on FC</t>
   </si>
   <si>
-    <t xml:space="preserve">Make sure to test SDR function</t>
+    <t xml:space="preserve">Make sure to test SDR function. Can also use 18650 in battery shield</t>
   </si>
   <si>
     <t xml:space="preserve">Test issue commands to unit from dislocated network</t>
   </si>
   <si>
+    <t xml:space="preserve">Don’t remember exactly what I meant but all commands from bot/hub transmit and etc fine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test basic SDR operation from pi</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t xml:space="preserve">Receive &amp; follow commands over network</t>
   </si>
   <si>
+    <t xml:space="preserve">Sim testing working well</t>
+  </si>
+  <si>
     <t xml:space="preserve">Basic image recognition</t>
   </si>
   <si>
@@ -196,7 +205,34 @@
     <t xml:space="preserve">4G Data transmission</t>
   </si>
   <si>
-    <t xml:space="preserve">Data &amp; image feed to be visible to users at network hub</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Works, just want to be sure of it (ie vid stream and files </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> send)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Remote user control</t>
@@ -235,7 +271,7 @@
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -282,6 +318,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -541,7 +584,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -567,10 +610,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -708,7 +747,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -807,7 +846,9 @@
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
@@ -822,7 +863,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -832,109 +873,123 @@
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -942,18 +997,18 @@
     </row>
     <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -961,31 +1016,35 @@
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -993,14 +1052,14 @@
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1008,14 +1067,14 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1023,12 +1082,12 @@
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1036,12 +1095,12 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1049,16 +1108,16 @@
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>56</v>
+      <c r="C18" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1066,14 +1125,16 @@
     </row>
     <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1081,87 +1142,87 @@
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>62</v>
+      <c r="A21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>

--- a/project_tracker.xlsx
+++ b/project_tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t xml:space="preserve">TASK TRACKER</t>
   </si>
@@ -61,18 +61,18 @@
     <t xml:space="preserve">Backend communication framework between hub + units</t>
   </si>
   <si>
+    <t xml:space="preserve">See readme for explanation of function/directories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect &amp; test servos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash ardurover</t>
+  </si>
+  <si>
     <t xml:space="preserve">IN PROGRESS</t>
   </si>
   <si>
-    <t xml:space="preserve">See readme for explanation of function/directories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connect &amp; test servos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flash ardurover</t>
-  </si>
-  <si>
     <t xml:space="preserve">Current board still has INAV</t>
   </si>
   <si>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Assemble RC components and connect together</t>
   </si>
   <si>
-    <t xml:space="preserve">Using PQ-2</t>
+    <t xml:space="preserve">Using PQ-2 model (once built)</t>
   </si>
   <si>
     <t xml:space="preserve">Telegram bot</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Test power pi from 5V pin on FC</t>
   </si>
   <si>
-    <t xml:space="preserve">Make sure to test SDR function. Can also use 18650 in battery shield</t>
+    <t xml:space="preserve">Perhaps better to use 18650 with shield? Compare FC pin with this</t>
   </si>
   <si>
     <t xml:space="preserve">Test issue commands to unit from dislocated network</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Telemetry over 4G</t>
   </si>
   <si>
-    <t xml:space="preserve">Ardupilot telemetry over 4G</t>
+    <t xml:space="preserve">Seems to work fine over VPN</t>
   </si>
   <si>
     <t xml:space="preserve">Autorotation</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">Design servo mount and pi/camera case</t>
   </si>
   <si>
-    <t xml:space="preserve">Current idea: servo in mount below with splayed floorstands; pi, SDR, cam etc in case on top</t>
+    <t xml:space="preserve">Have designed a payload container for testing for now, later need to design with servo mounts &amp; rotating camera</t>
   </si>
   <si>
     <t xml:space="preserve">CREATE MASTER SD CARD</t>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t xml:space="preserve">Print</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing provisional/testing Rpi payload container</t>
   </si>
   <si>
     <t xml:space="preserve">Assemble</t>
@@ -747,7 +750,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -856,25 +859,25 @@
         <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>17</v>
@@ -883,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
@@ -903,7 +906,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>23</v>
@@ -912,7 +915,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>25</v>
@@ -923,7 +926,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>27</v>
@@ -950,7 +953,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>33</v>
@@ -966,7 +969,7 @@
         <v>36</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>37</v>
@@ -986,7 +989,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>41</v>
@@ -1006,7 +1009,9 @@
       <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="6" t="s">
         <v>45</v>
       </c>
@@ -1026,7 +1031,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>49</v>
@@ -1128,7 +1133,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>61</v>
@@ -1161,7 +1166,9 @@
       <c r="A21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C21" s="8" t="s">
         <v>65</v>
       </c>
@@ -1172,18 +1179,22 @@
         <v>66</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1191,9 +1202,9 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1206,7 +1217,7 @@
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>

--- a/project_tracker.xlsx
+++ b/project_tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t xml:space="preserve">TASK TRACKER</t>
   </si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Connect &amp; test servos</t>
   </si>
   <si>
-    <t xml:space="preserve">Flash ardurover</t>
+    <t xml:space="preserve">ardupilot</t>
   </si>
   <si>
     <t xml:space="preserve">IN PROGRESS</t>
@@ -85,9 +85,6 @@
     <t xml:space="preserve">Install OpenCV and aircrack-ng</t>
   </si>
   <si>
-    <t xml:space="preserve">at least 2 means of detection. Find out a way to get data direct from aircrack not string console output</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assemble RC components and connect together</t>
   </si>
   <si>
@@ -97,7 +94,7 @@
     <t xml:space="preserve">Telegram bot</t>
   </si>
   <si>
-    <t xml:space="preserve">So far the central bot (running on the hub server) seems to work well</t>
+    <t xml:space="preserve">Configure keyboard properly</t>
   </si>
   <si>
     <t xml:space="preserve">Servo control code</t>
@@ -151,7 +148,7 @@
     <t xml:space="preserve">SDR control code</t>
   </si>
   <si>
-    <t xml:space="preserve">Allow for programmatic &amp; dynamic control of RF emission (python subprocess?)</t>
+    <t xml:space="preserve">Allow for programmatic &amp; dynamic control of RF emission (use subprocess or library?)</t>
   </si>
   <si>
     <t xml:space="preserve">Telemetry over 4G</t>
@@ -187,7 +184,7 @@
     <t xml:space="preserve">Acquire drone image dataset</t>
   </si>
   <si>
-    <t xml:space="preserve">Can take many pictures of parrot anafi as test</t>
+    <t xml:space="preserve">Plenty of images downloaded by auto downloader script</t>
   </si>
   <si>
     <t xml:space="preserve">Create &amp; train model on dataset</t>
@@ -250,7 +247,7 @@
     <t xml:space="preserve">CREATE MASTER SD CARD</t>
   </si>
   <si>
-    <t xml:space="preserve">OS image has been created but need to do final one on raspian-lite when ready</t>
+    <t xml:space="preserve">Need to add wireguard to latest OS image</t>
   </si>
   <si>
     <t xml:space="preserve">Print</t>
@@ -749,8 +746,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -892,107 +889,105 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1000,20 +995,20 @@
     </row>
     <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1021,20 +1016,20 @@
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1042,11 +1037,13 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1057,11 +1054,11 @@
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1072,11 +1069,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1087,7 +1086,7 @@
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1100,7 +1099,7 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1113,13 +1112,13 @@
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1130,13 +1129,13 @@
     </row>
     <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1147,13 +1146,13 @@
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1164,36 +1163,36 @@
     </row>
     <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1204,7 +1203,7 @@
     </row>
     <row r="23" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1217,7 +1216,7 @@
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
